--- a/example-0001_dra_metadata.xlsx
+++ b/example-0001_dra_metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23232" windowHeight="10512" tabRatio="430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536" tabRatio="430"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="217">
   <si>
     <t>Library Source</t>
   </si>
@@ -305,18 +305,6 @@
   </si>
   <si>
     <t>Experiment Referenced</t>
-  </si>
-  <si>
-    <t>d3f8993745235bf50c0b0960587372a3</t>
-  </si>
-  <si>
-    <t>952a547197955ba7ec1e7fe0fca78fbd</t>
-  </si>
-  <si>
-    <t>1983835b5b2701796a3c9b73f7885f5a</t>
-  </si>
-  <si>
-    <t>9d411f31be0486e26da61c038712131e</t>
   </si>
   <si>
     <t>WGS</t>
@@ -804,22 +792,13 @@
     <t>Example experiment title 1</t>
   </si>
   <si>
-    <t>SAMD00061135</t>
-  </si>
-  <si>
     <t>Example library name 1</t>
   </si>
   <si>
     <t>Example library construction protocol 1</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>Example experiment title 2</t>
-  </si>
-  <si>
-    <t>SAMD00061136</t>
   </si>
   <si>
     <t>Example library name 2</t>
@@ -829,9 +808,6 @@
   </si>
   <si>
     <t>Example experiment title 3</t>
-  </si>
-  <si>
-    <t>SAMD00061137</t>
   </si>
   <si>
     <t>Example library name 3</t>
@@ -847,9 +823,6 @@
   </si>
   <si>
     <t>Example experiment title 4</t>
-  </si>
-  <si>
-    <t>SAMD00061138</t>
   </si>
   <si>
     <t>Example library name 4</t>
@@ -891,13 +864,48 @@
     <t>accession.tab</t>
   </si>
   <si>
-    <t>e3b53db5cdcaad21748ad0d1a724e3f7</t>
-  </si>
-  <si>
     <t>run4.bam</t>
   </si>
   <si>
-    <t>c070fed15017c10962b905aac452c44e</t>
+    <t>101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SAMD00218641</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SAMD00218642</t>
+  </si>
+  <si>
+    <t>SAMD00218643</t>
+  </si>
+  <si>
+    <t>SAMD00218644</t>
+  </si>
+  <si>
+    <t>537e142c7714d654276ac1e79b42a7b0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>c5779305e16004ff03afe52a0efffaf4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3f9d4730efc67d64ad331e9bfb8f6369</t>
+  </si>
+  <si>
+    <t>e3fc484ca37e30ecbb855bb0577a4026</t>
+  </si>
+  <si>
+    <t>c9f343549f617c61c5219c77f135195f</t>
+  </si>
+  <si>
+    <t>9c349d8e07027cd6cfc49219a321a9af</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1377,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1380,27 +1388,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="26.4">
       <c r="A4" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1431,21 +1439,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3">
         <v>45292</v>
@@ -1453,26 +1461,26 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1491,7 +1499,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -1514,7 +1522,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>9</v>
@@ -1555,16 +1563,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
@@ -1573,33 +1581,33 @@
         <v>18</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>3</v>
@@ -1608,33 +1616,33 @@
         <v>18</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>3</v>
@@ -1643,36 +1651,36 @@
         <v>18</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>3</v>
@@ -1681,22 +1689,22 @@
         <v>18</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1761,7 +1769,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>9</v>
@@ -1772,46 +1780,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="B4" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="B5" s="9" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1826,15 +1834,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4631"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="41" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -1844,7 +1850,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>6</v>
@@ -1855,86 +1861,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -28345,35 +28351,35 @@
         <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>8</v>
@@ -28383,138 +28389,138 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -28524,13 +28530,13 @@
     <row r="11" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -28540,10 +28546,10 @@
     <row r="12" spans="1:8">
       <c r="A12" s="13"/>
       <c r="B12" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>19</v>
@@ -28556,13 +28562,13 @@
     <row r="13" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -28572,13 +28578,13 @@
     <row r="14" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -28588,13 +28594,13 @@
     <row r="15" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -28604,13 +28610,13 @@
     <row r="16" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -28620,13 +28626,13 @@
     <row r="17" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -28636,13 +28642,13 @@
     <row r="18" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -28652,13 +28658,13 @@
     <row r="19" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -28668,13 +28674,13 @@
     <row r="20" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -28684,13 +28690,13 @@
     <row r="21" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -28700,13 +28706,13 @@
     <row r="22" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -28716,13 +28722,13 @@
     <row r="23" spans="1:8">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -28732,13 +28738,13 @@
     <row r="24" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -28748,13 +28754,13 @@
     <row r="25" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -28764,13 +28770,13 @@
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="D26" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -28780,13 +28786,13 @@
     <row r="27" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -28796,13 +28802,13 @@
     <row r="28" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -28812,13 +28818,13 @@
     <row r="29" spans="1:8">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -28828,13 +28834,13 @@
     <row r="30" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -28845,10 +28851,10 @@
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -28859,10 +28865,10 @@
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -28873,10 +28879,10 @@
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -28887,10 +28893,10 @@
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -28901,10 +28907,10 @@
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -28915,10 +28921,10 @@
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -28929,10 +28935,10 @@
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -28944,7 +28950,7 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -28956,7 +28962,7 @@
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -28968,7 +28974,7 @@
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -28977,77 +28983,77 @@
     </row>
     <row r="41" spans="1:8">
       <c r="D41" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="D42" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="D43" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="D44" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="D45" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="D46" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="D47" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="D42" s="5" t="s">
+    <row r="48" spans="1:8">
+      <c r="D48" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="D43" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="D44" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="D45" s="5" t="s">
+    <row r="49" spans="4:4">
+      <c r="D49" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="D46" s="5" t="s">
+    <row r="50" spans="4:4">
+      <c r="D50" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="D47" s="5" t="s">
+    <row r="51" spans="4:4">
+      <c r="D51" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="D48" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
     <row r="52" spans="4:4">
       <c r="D52" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/example-0001_dra_metadata.xlsx
+++ b/example-0001_dra_metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536" tabRatio="430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24288" windowHeight="8952" tabRatio="430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -65,7 +65,9 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>YYYY-MM-DD (e.g, 2024-01-01)</t>
+          <t>YYYY-MM-DD (e.g, 2024-01-01)
+For immediate release, 
+enter date of submission.</t>
         </r>
       </text>
     </comment>
@@ -565,10 +567,6 @@
     <t>AB 310 Genetic Analyzer</t>
   </si>
   <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>cDNA_randomPriming</t>
   </si>
   <si>
@@ -759,10 +757,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2020-04-08 Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>This excel file is used to generate Submission, Experiment and Run XMLs for DDBJ Sequence Read Archive (DRA) submission. 
 Please see https://github.com/ddbj/submission-excel2xml for details.</t>
     <phoneticPr fontId="2"/>
@@ -906,6 +900,14 @@
   </si>
   <si>
     <t>9c349d8e07027cd6cfc49219a321a9af</t>
+  </si>
+  <si>
+    <t>2020-10-09 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v1.1</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1376,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1388,27 +1390,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="26.4">
       <c r="A4" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1423,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1439,21 +1441,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3">
         <v>45292</v>
@@ -1461,26 +1463,26 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1522,7 +1524,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>9</v>
@@ -1563,16 +1565,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
@@ -1584,7 +1586,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>66</v>
@@ -1593,21 +1595,21 @@
         <v>20</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>3</v>
@@ -1619,7 +1621,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>66</v>
@@ -1628,21 +1630,21 @@
         <v>20</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>3</v>
@@ -1654,7 +1656,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>60</v>
@@ -1663,24 +1665,24 @@
         <v>21</v>
       </c>
       <c r="K4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>3</v>
@@ -1692,7 +1694,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>60</v>
@@ -1701,10 +1703,10 @@
         <v>21</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +1771,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>9</v>
@@ -1780,46 +1782,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C3" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>178</v>
+      <c r="C4" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
-        <v>142</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>143</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>6</v>
@@ -1861,86 +1863,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -28367,7 +28369,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>28</v>
@@ -28379,7 +28381,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>8</v>
@@ -28392,7 +28394,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>33</v>
@@ -28411,7 +28413,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>37</v>
@@ -28424,7 +28426,7 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -28437,7 +28439,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>43</v>
@@ -28474,10 +28476,10 @@
         <v>40</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>48</v>
@@ -28491,10 +28493,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>72</v>
@@ -28504,7 +28506,7 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -28533,7 +28535,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>64</v>
@@ -28546,10 +28548,10 @@
     <row r="12" spans="1:8">
       <c r="A12" s="13"/>
       <c r="B12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>19</v>
@@ -28562,7 +28564,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>47</v>
@@ -28578,10 +28580,10 @@
     <row r="14" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>57</v>
@@ -28594,13 +28596,13 @@
     <row r="15" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -28610,13 +28612,13 @@
     <row r="16" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -28632,7 +28634,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -28658,7 +28660,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>62</v>
@@ -28674,13 +28676,13 @@
     <row r="20" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -28690,7 +28692,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>65</v>
@@ -28706,13 +28708,13 @@
     <row r="22" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -28722,13 +28724,13 @@
     <row r="23" spans="1:8">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -28738,7 +28740,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>75</v>
@@ -28760,7 +28762,7 @@
         <v>78</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -28802,7 +28804,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>86</v>
@@ -28821,7 +28823,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>82</v>
@@ -28893,10 +28895,10 @@
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -28907,10 +28909,10 @@
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -28921,10 +28923,10 @@
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -28974,7 +28976,7 @@
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -28993,12 +28995,12 @@
     </row>
     <row r="43" spans="1:8">
       <c r="D43" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="D44" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -29048,7 +29050,7 @@
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="4:4">

--- a/example-0001_dra_metadata.xlsx
+++ b/example-0001_dra_metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24288" windowHeight="8952" tabRatio="430" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11820" tabRatio="430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -68,6 +68,21 @@
           <t>YYYY-MM-DD (e.g, 2024-01-01)
 For immediate release, 
 enter date of submission.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter a BioProject accession (e.g., PRJDB7252) for this submission.</t>
         </r>
       </text>
     </comment>
@@ -238,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="222">
   <si>
     <t>Library Source</t>
   </si>
@@ -909,6 +924,26 @@
     <t>v1.1</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>BioProject accession</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PRJDB7252</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t># Enter unique aliases in the format 'Experiment-n' (e.g, Experiment-1). Do NOT use the 'DRA submission ID_Experiment_n' format (e.g., 'test-0001_Experiment_0001').</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t># Enter unique aliases in the format 'Run-n' (e.g, Run-1). Do NOT use the 'DRA submission ID_Run_n' format (e.g., 'test-0001_Run_0001').</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t># Enter unique aliases in the format 'Run-n' (e.g, Run-1). Do NOT use the 'DRA submission ID_Run_n' format (e.g., 'test-0001_Run_0001').</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -918,7 +953,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -979,6 +1014,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1029,7 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <protection locked="0"/>
     </xf>
@@ -1086,6 +1127,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1379,7 +1423,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1426,7 +1470,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1439,7 +1483,7 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
         <v>133</v>
       </c>
@@ -1449,8 +1493,11 @@
       <c r="C1" s="17" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>170</v>
       </c>
@@ -1460,8 +1507,11 @@
       <c r="C2" s="3">
         <v>45292</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D2" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="16" t="s">
         <v>135</v>
       </c>
@@ -1469,7 +1519,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>172</v>
       </c>
@@ -1477,7 +1527,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>174</v>
       </c>
@@ -1485,7 +1535,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="B7"/>
     </row>
   </sheetData>
@@ -1497,11 +1547,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -1709,6 +1759,11 @@
         <v>204</v>
       </c>
     </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1755,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -1824,6 +1879,14 @@
         <v>140</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="19"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,7 +1899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4631"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -1953,7 +2018,9 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="19" t="s">
+        <v>220</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
@@ -28308,7 +28375,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>

--- a/example-0001_dra_metadata.xlsx
+++ b/example-0001_dra_metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11820" tabRatio="430" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536" tabRatio="430"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="219">
   <si>
     <t>Library Source</t>
   </si>
@@ -932,18 +932,6 @@
     <t>PRJDB7252</t>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t># Enter unique aliases in the format 'Experiment-n' (e.g, Experiment-1). Do NOT use the 'DRA submission ID_Experiment_n' format (e.g., 'test-0001_Experiment_0001').</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t># Enter unique aliases in the format 'Run-n' (e.g, Run-1). Do NOT use the 'DRA submission ID_Run_n' format (e.g., 'test-0001_Run_0001').</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t># Enter unique aliases in the format 'Run-n' (e.g, Run-1). Do NOT use the 'DRA submission ID_Run_n' format (e.g., 'test-0001_Run_0001').</t>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
@@ -1422,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1469,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
@@ -1551,7 +1539,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -1760,9 +1748,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="19" t="s">
-        <v>219</v>
-      </c>
+      <c r="A7" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1813,7 +1799,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -1880,9 +1866,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="19" t="s">
-        <v>221</v>
-      </c>
+      <c r="A7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19"/>
@@ -1900,7 +1884,7 @@
   <dimension ref="A1:D4631"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -2018,9 +2002,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
-      <c r="B9" s="19" t="s">
-        <v>220</v>
-      </c>
+      <c r="B9" s="19"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>

--- a/example-0001_dra_metadata.xlsx
+++ b/example-0001_dra_metadata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.112.22\ykodama\github\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ddbjs4.nig.ac.jp\ykodama\github\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536" tabRatio="430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20124" windowHeight="8772" tabRatio="430"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="231">
   <si>
     <t>Library Source</t>
   </si>
@@ -743,16 +743,10 @@
     <t>Restriction Digest</t>
   </si>
   <si>
-    <t xml:space="preserve">Illumina MiniSeq      </t>
-  </si>
-  <si>
     <t>5-methylcytidine antibody</t>
   </si>
   <si>
     <t>MBD2 protein methyl-CpG binding domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NextSeq 550            </t>
   </si>
   <si>
     <t>padlock probes capture method</t>
@@ -917,19 +911,61 @@
     <t>9c349d8e07027cd6cfc49219a321a9af</t>
   </si>
   <si>
-    <t>2020-10-09 Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v1.1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BioProject accession</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>PRJDB7252</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Illumina MiniSeq</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>NextSeq 1000</t>
+  </si>
+  <si>
+    <t>NextSeq 2000</t>
+  </si>
+  <si>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>BGISEQ-500</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G400</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>MGISEQ-2000RS</t>
+  </si>
+  <si>
+    <t>Sequel II</t>
+  </si>
+  <si>
+    <t>Ion GeneStudio S5</t>
+  </si>
+  <si>
+    <t>Ion GeneStudio S5 plus</t>
+  </si>
+  <si>
+    <t>Ion GeneStudio S5 prime</t>
+  </si>
+  <si>
+    <t>2021-07-13 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v1.2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1411,7 +1447,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1422,27 +1458,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="26.4">
       <c r="A4" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1482,21 +1518,21 @@
         <v>134</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C2" s="3">
         <v>45292</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1509,18 +1545,18 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1603,16 +1639,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
@@ -1624,7 +1660,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>66</v>
@@ -1633,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1641,13 +1677,13 @@
         <v>138</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>3</v>
@@ -1659,7 +1695,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>66</v>
@@ -1668,7 +1704,7 @@
         <v>20</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1676,13 +1712,13 @@
         <v>139</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>3</v>
@@ -1694,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>60</v>
@@ -1703,10 +1739,10 @@
         <v>21</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1714,13 +1750,13 @@
         <v>140</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>3</v>
@@ -1732,7 +1768,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>60</v>
@@ -1741,10 +1777,10 @@
         <v>21</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1823,13 +1859,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1837,7 +1873,7 @@
         <v>141</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>138</v>
@@ -1848,7 +1884,7 @@
         <v>142</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>139</v>
@@ -1859,7 +1895,7 @@
         <v>143</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>140</v>
@@ -1912,21 +1948,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>141</v>
@@ -1935,12 +1971,12 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>142</v>
@@ -1949,12 +1985,12 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>142</v>
@@ -1963,12 +1999,12 @@
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>143</v>
@@ -1977,12 +2013,12 @@
         <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>143</v>
@@ -1991,7 +2027,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -28355,10 +28391,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection sqref="A1:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -28435,7 +28471,7 @@
         <v>147</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -28457,7 +28493,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -28477,7 +28513,7 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -28497,7 +28533,7 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -28517,7 +28553,7 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -28537,7 +28573,7 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -28556,9 +28592,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>154</v>
-      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
@@ -28765,7 +28799,7 @@
         <v>67</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -28775,7 +28809,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>4</v>
@@ -28791,7 +28825,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>75</v>
@@ -28813,7 +28847,7 @@
         <v>78</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -28829,7 +28863,7 @@
         <v>81</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -28845,7 +28879,7 @@
         <v>83</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -28855,13 +28889,13 @@
     <row r="28" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -28874,10 +28908,10 @@
         <v>85</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -28893,7 +28927,7 @@
         <v>89</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -28907,7 +28941,7 @@
         <v>91</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -28918,10 +28952,10 @@
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -28932,10 +28966,10 @@
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -28946,10 +28980,10 @@
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -28960,10 +28994,10 @@
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -28974,10 +29008,10 @@
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -28988,10 +29022,10 @@
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -29001,9 +29035,11 @@
     <row r="38" spans="1:8">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="D38" s="10" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -29015,7 +29051,7 @@
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -29027,7 +29063,7 @@
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -29036,76 +29072,131 @@
     </row>
     <row r="41" spans="1:8">
       <c r="D41" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="D42" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="D43" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="D44" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="D45" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="D46" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="D47" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="D48" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="D42" s="5" t="s">
+    <row r="50" spans="4:4">
+      <c r="D50" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="D43" s="5" t="s">
+    <row r="51" spans="4:4">
+      <c r="D51" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="D44" s="5" t="s">
+    <row r="52" spans="4:4">
+      <c r="D52" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="D45" s="5" t="s">
+    <row r="53" spans="4:4">
+      <c r="D53" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="D46" s="5" t="s">
+    <row r="57" spans="4:4">
+      <c r="D57" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="D47" s="5" t="s">
+    <row r="58" spans="4:4">
+      <c r="D58" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="D48" s="5" t="s">
+    <row r="59" spans="4:4">
+      <c r="D59" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="5" t="s">
+    <row r="60" spans="4:4">
+      <c r="D60" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="5" t="s">
+    <row r="61" spans="4:4">
+      <c r="D61" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="5" t="s">
+    <row r="62" spans="4:4">
+      <c r="D62" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="5" t="s">
+    <row r="63" spans="4:4">
+      <c r="D63" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="5" t="s">
+    <row r="64" spans="4:4">
+      <c r="D64" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="5" t="s">
+    <row r="65" spans="4:4">
+      <c r="D65" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="5" t="s">
+    <row r="66" spans="4:4">
+      <c r="D66" s="5" t="s">
         <v>88</v>
       </c>
     </row>

--- a/example-0001_dra_metadata.xlsx
+++ b/example-0001_dra_metadata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ddbjs4.nig.ac.jp\ykodama\github\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.112.22\ykodama\github\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20124" windowHeight="8772" tabRatio="430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32424" windowHeight="8772" tabRatio="430"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="230">
   <si>
     <t>Library Source</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>MD5 Checksum</t>
-  </si>
-  <si>
-    <t>fastq</t>
   </si>
   <si>
     <t>Title</t>
@@ -1447,7 +1444,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1458,27 +1455,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
     <row r="4" spans="1:1" ht="26.4">
       <c r="A4" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1509,54 +1506,54 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>134</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="3">
         <v>45292</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="B6" t="s">
         <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1573,9 +1570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2911" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2911" sqref="I2911"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -1598,13 +1595,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>2</v>
@@ -1613,174 +1610,174 @@
         <v>0</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>178</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>181</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="M4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>189</v>
-      </c>
       <c r="M5" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1808,21 +1805,21 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Admin!$C$2:$C$37</xm:f>
+            <xm:f>Admin!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G3000</xm:sqref>
+          <xm:sqref>J2:J3000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Admin!$D$2:$D$55</xm:f>
+            <xm:f>Admin!$D$2:$D$66</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I3000</xm:sqref>
+          <xm:sqref>I2:I3001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Admin!$E$2:$E$4</xm:f>
+            <xm:f>Admin!$C$2:$C$38</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J3000</xm:sqref>
+          <xm:sqref>G2:G3001</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1848,57 +1845,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>174</v>
+      <c r="C3" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1919,9 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4631"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -1937,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>6</v>
@@ -1948,86 +1943,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>190</v>
+      <c r="B3" s="9" t="s">
+        <v>140</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -28379,9 +28374,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Admin!$F$2:$F$9</xm:f>
+            <xm:f>Admin!$F$2:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C3000</xm:sqref>
+          <xm:sqref>C2:C3001</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28415,16 +28410,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>6</v>
@@ -28437,159 +28432,159 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -28598,16 +28593,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -28617,13 +28612,13 @@
     <row r="11" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -28633,13 +28628,13 @@
     <row r="12" spans="1:8">
       <c r="A12" s="13"/>
       <c r="B12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -28649,13 +28644,13 @@
     <row r="13" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -28665,13 +28660,13 @@
     <row r="14" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -28681,13 +28676,13 @@
     <row r="15" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -28697,13 +28692,13 @@
     <row r="16" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -28713,13 +28708,13 @@
     <row r="17" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -28729,13 +28724,13 @@
     <row r="18" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -28745,13 +28740,13 @@
     <row r="19" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -28761,13 +28756,13 @@
     <row r="20" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -28777,13 +28772,13 @@
     <row r="21" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -28793,13 +28788,13 @@
     <row r="22" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -28809,13 +28804,13 @@
     <row r="23" spans="1:8">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -28825,13 +28820,13 @@
     <row r="24" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -28841,13 +28836,13 @@
     <row r="25" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -28857,13 +28852,13 @@
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -28873,13 +28868,13 @@
     <row r="27" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -28889,13 +28884,13 @@
     <row r="28" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -28905,13 +28900,13 @@
     <row r="29" spans="1:8">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -28921,13 +28916,13 @@
     <row r="30" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="D30" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -28938,10 +28933,10 @@
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -28952,10 +28947,10 @@
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -28966,10 +28961,10 @@
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -28980,10 +28975,10 @@
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -28994,10 +28989,10 @@
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -29008,10 +29003,10 @@
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -29022,10 +29017,10 @@
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -29036,10 +29031,10 @@
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -29051,7 +29046,7 @@
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -29063,7 +29058,7 @@
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -29072,132 +29067,132 @@
     </row>
     <row r="41" spans="1:8">
       <c r="D41" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="D42" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="D42" s="5" t="s">
+    <row r="43" spans="1:8">
+      <c r="D43" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="D43" s="5" t="s">
+    <row r="44" spans="1:8">
+      <c r="D44" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="D44" s="5" t="s">
+    <row r="45" spans="1:8">
+      <c r="D45" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="D46" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="D47" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="D48" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="D45" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="D46" s="5" t="s">
+    <row r="49" spans="4:4">
+      <c r="D49" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="D47" s="5" t="s">
+    <row r="50" spans="4:4">
+      <c r="D50" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="D48" s="5" t="s">
+    <row r="52" spans="4:4">
+      <c r="D52" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="5" t="s">
-        <v>100</v>
+    <row r="54" spans="4:4">
+      <c r="D54" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="5" t="s">
+    <row r="55" spans="4:4">
+      <c r="D55" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="5" t="s">
+    <row r="57" spans="4:4">
+      <c r="D57" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="5" t="s">
+    <row r="58" spans="4:4">
+      <c r="D58" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="5" t="s">
+    <row r="59" spans="4:4">
+      <c r="D59" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="5" t="s">
+    <row r="60" spans="4:4">
+      <c r="D60" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="5" t="s">
+    <row r="61" spans="4:4">
+      <c r="D61" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="5" t="s">
+    <row r="62" spans="4:4">
+      <c r="D62" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
     <row r="63" spans="4:4">
       <c r="D63" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="65" spans="4:4">
       <c r="D65" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/example-0001_dra_metadata.xlsx
+++ b/example-0001_dra_metadata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.112.22\ykodama\github\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykoda\Desktop\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE31BA89-2FAD-4643-8E24-2DD20EC90CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32424" windowHeight="8772" tabRatio="430"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>児玉悠一</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,12 +50,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>児玉悠一</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -106,12 +107,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>児玉悠一</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -176,12 +177,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>児玉悠一</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -195,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,12 +215,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>児玉悠一</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -325,9 +326,6 @@
   </si>
   <si>
     <t>454 GS</t>
-  </si>
-  <si>
-    <t>generic_fastq</t>
   </si>
   <si>
     <t>bam</t>
@@ -958,18 +956,22 @@
     <t>Ion GeneStudio S5 prime</t>
   </si>
   <si>
-    <t>2021-07-13 Bioinformation and DDBJ Center</t>
+    <t>fastq</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>v1.2</t>
+    <t>2022-08-12 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v1.3</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
@@ -1156,8 +1158,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
-    <cellStyle name="標準 3" xfId="1"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1440,17 +1442,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="143.21875" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="143.1796875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="8.90625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1463,19 +1465,19 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="26.4">
+    <row r="4" spans="1:1" ht="25">
       <c r="A4" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1487,73 +1489,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="14.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="3">
         <v>45292</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="B6" t="s">
         <v>171</v>
-      </c>
-      <c r="B6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1567,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
@@ -1575,27 +1577,27 @@
       <selection pane="bottomLeft" activeCell="I2911" sqref="I2911"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="56.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="9"/>
+    <col min="11" max="11" width="14.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>8</v>
@@ -1636,16 +1638,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>174</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
@@ -1657,30 +1659,30 @@
         <v>22</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>3</v>
@@ -1692,30 +1694,30 @@
         <v>22</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>3</v>
@@ -1727,33 +1729,33 @@
         <v>22</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="M4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>3</v>
@@ -1765,19 +1767,19 @@
         <v>22</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1791,31 +1793,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Admin!$A$2:$A$10</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E3000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Admin!$B$2:$B$30</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F3000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Admin!$E$2:$E$4</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J3000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>Admin!$D$2:$D$66</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I3001</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>Admin!$C$2:$C$38</xm:f>
           </x14:formula1>
@@ -1828,24 +1830,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" style="9" customWidth="1"/>
     <col min="2" max="2" width="43" style="9" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="29.90625" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>8</v>
@@ -1856,46 +1858,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>173</v>
+      <c r="C3" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1913,18 +1915,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D4631"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="41" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="36.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1932,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>6</v>
@@ -1943,86 +1945,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>189</v>
+      <c r="B3" s="9" t="s">
+        <v>139</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -28372,7 +28374,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Admin!$F$2:$F$8</xm:f>
           </x14:formula1>
@@ -28385,27 +28387,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F66"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="5"/>
+    <col min="7" max="7" width="21.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -28444,147 +28446,147 @@
         <v>19</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -28593,16 +28595,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -28612,13 +28614,13 @@
     <row r="11" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -28628,10 +28630,10 @@
     <row r="12" spans="1:8">
       <c r="A12" s="13"/>
       <c r="B12" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>18</v>
@@ -28644,13 +28646,13 @@
     <row r="13" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -28660,13 +28662,13 @@
     <row r="14" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -28676,13 +28678,13 @@
     <row r="15" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -28692,13 +28694,13 @@
     <row r="16" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -28708,13 +28710,13 @@
     <row r="17" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -28724,13 +28726,13 @@
     <row r="18" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -28740,13 +28742,13 @@
     <row r="19" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -28756,13 +28758,13 @@
     <row r="20" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -28772,13 +28774,13 @@
     <row r="21" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -28788,13 +28790,13 @@
     <row r="22" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -28804,13 +28806,13 @@
     <row r="23" spans="1:8">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -28820,13 +28822,13 @@
     <row r="24" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -28836,13 +28838,13 @@
     <row r="25" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -28852,13 +28854,13 @@
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -28868,13 +28870,13 @@
     <row r="27" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -28884,13 +28886,13 @@
     <row r="28" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -28900,13 +28902,13 @@
     <row r="29" spans="1:8">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -28916,13 +28918,13 @@
     <row r="30" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="D30" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -28933,10 +28935,10 @@
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -28947,10 +28949,10 @@
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -28961,10 +28963,10 @@
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -28975,10 +28977,10 @@
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -28989,10 +28991,10 @@
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -29003,10 +29005,10 @@
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -29017,10 +29019,10 @@
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -29031,10 +29033,10 @@
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -29046,7 +29048,7 @@
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -29058,7 +29060,7 @@
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -29067,132 +29069,132 @@
     </row>
     <row r="41" spans="1:8">
       <c r="D41" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="D42" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="D42" s="5" t="s">
+    <row r="43" spans="1:8">
+      <c r="D43" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="D43" s="5" t="s">
+    <row r="44" spans="1:8">
+      <c r="D44" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="D44" s="5" t="s">
+    <row r="45" spans="1:8">
+      <c r="D45" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="D46" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="D47" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="D48" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="D45" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="D46" s="5" t="s">
+    <row r="49" spans="4:4">
+      <c r="D49" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="D47" s="5" t="s">
+    <row r="50" spans="4:4">
+      <c r="D50" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="D48" s="5" t="s">
+    <row r="52" spans="4:4">
+      <c r="D52" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="5" t="s">
-        <v>99</v>
+    <row r="54" spans="4:4">
+      <c r="D54" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="5" t="s">
+    <row r="55" spans="4:4">
+      <c r="D55" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="5" t="s">
+    <row r="57" spans="4:4">
+      <c r="D57" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="5" t="s">
+    <row r="58" spans="4:4">
+      <c r="D58" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="5" t="s">
+    <row r="59" spans="4:4">
+      <c r="D59" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="5" t="s">
+    <row r="60" spans="4:4">
+      <c r="D60" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="5" t="s">
+    <row r="61" spans="4:4">
+      <c r="D61" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="5" t="s">
+    <row r="62" spans="4:4">
+      <c r="D62" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="63" spans="4:4">
       <c r="D63" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
     <row r="65" spans="4:4">
       <c r="D65" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/example-0001_dra_metadata.xlsx
+++ b/example-0001_dra_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuichi\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBBE698-BD52-4126-8A10-0EFFD74BFA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7965A1-26F8-4D19-8036-801F7F28F8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="430" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Experiment" sheetId="2" r:id="rId3"/>
     <sheet name="Run" sheetId="3" r:id="rId4"/>
     <sheet name="Run-file" sheetId="4" r:id="rId5"/>
-    <sheet name="Admin" sheetId="7" r:id="rId6"/>
+    <sheet name="Analysis" sheetId="10" r:id="rId6"/>
+    <sheet name="Admin" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -30,7 +31,7 @@
     <author>児玉悠一</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{8717FBD1-E348-42E4-BD52-C73788010064}">
       <text>
         <r>
           <rPr>
@@ -226,8 +227,180 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>児玉悠一</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{34A81BB9-E06D-4F7F-B40E-4249951E56CF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter unique aliases in the format 'Analysis-n' (e.g. Analysis-1). 
+Do NOT use the 'DRA submission ID_Analysis_n' format (e.g. 'test-0001_Analysis_0001').</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0CB6B290-4A28-4B63-AB75-69331EE5C164}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter BioSample accession(s). List more than one accession by delimiting "," (comma). Serial accessions can be specified by connecting start and end accessions with "-" (hyphen).
+Examples;
+"SAMD00000001"
+"SAMD0000001,SAMD0000003"
+"SAMD0000001-SAMD0000010"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C1818EC9-AF14-4D2B-B775-82B798AE10AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter analysis data filename(s). List more than one file by delimiting "," (comma).
+Examples;
+"analysis1.fasta"
+"analysis1.fasta,analysis2.fasta"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{05F83AC4-B102-475C-824D-4FAF9E9AE49F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter filetype(s). If one filetype is entered for files, we assume that all files are the same filetype. If files are mix of filetypes, list the same number of filetypes by delimiting "," (comma).
+See all filetypes at
+https://www.ddbj.nig.ac.jp/dra/metadata-e.html#Analysis_File_Type
+Examples:
+"fasta"
+"fasta,tab" for "analysis1.fasta,reference.txt" files.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{E3C27783-EBCC-49A7-AFD7-99A972A7DC6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter md5 checksum(s) of analysis data files. 
+List checksums by delimiting "," (comma).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{78F649D0-4A30-4213-B444-7061F8521889}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>A name or an Assembly accession of reference sequences. Necessary when the Analysis type is REFERENCE_ALIGNMENT.
+Examples:
+"GRCh38"
+"GCF_000001405.40"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9E424635-C0B9-40CF-8940-268BDF6A3258}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter analysis step(s). Describe a step in format "analysis name:program name:program version". List steps by delimiting steps with "," (comma) in the order of actual analysis.
+Examples:
+"alignment:Burrows-Wheller-Aligner:0.7.10,trimming:fastx-clipper:1.1.2-318"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{3D389C80-4B0A-4C92-B165-98A69DFD6404}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter custom attribute(s). Enter an attribute in format "attribute name:value". List attributes by delimiting "," (comma).
+Examples:
+"metagenome_assembly:binned,completeness:90;contamination:0"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="248">
   <si>
     <t>Library Source</t>
   </si>
@@ -695,11 +868,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>This excel file is used to generate Submission, Experiment and Run XMLs for DDBJ Sequence Read Archive (DRA) submission. 
-Please see https://github.com/ddbj/submission-excel2xml for details.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BioProject accession</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -764,14 +932,6 @@
   </si>
   <si>
     <t>paired</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v1.5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2023-02-06 Bioinformation and DDBJ Center</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -927,6 +1087,93 @@
   <si>
     <t>c5779305e16004ff03afe52a0efffaf4</t>
   </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Analysis Type</t>
+  </si>
+  <si>
+    <t>BioSample</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Analysis step</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Attributes</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>REFERENCE_ALIGNMENT</t>
+  </si>
+  <si>
+    <t>DE_NOVO_ASSEMBLY</t>
+  </si>
+  <si>
+    <t>fasta</t>
+  </si>
+  <si>
+    <t>Analysis type</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>File Type</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ace</t>
+  </si>
+  <si>
+    <t>SEQUENCE_ANNOTATION</t>
+  </si>
+  <si>
+    <t>ABUNDANCE_MEASUREMENT</t>
+  </si>
+  <si>
+    <t>wig</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>vcf</t>
+  </si>
+  <si>
+    <t>maf</t>
+  </si>
+  <si>
+    <t>gff</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>tsv</t>
+  </si>
+  <si>
+    <t>2023-09-04 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v1.6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This excel file is used to generate Submission, Experiment, Run and Analysis XMLs for DDBJ Sequence Read Archive (DRA) submission. 
+Analysis submission is optional.
+Analysis-only submission is NOT acceptable. Submit Analysis in a DRA Submission which has Run(s).
+Please see https://github.com/ddbj/submission-excel2xml for details.</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -936,7 +1183,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -997,6 +1244,19 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1041,7 +1301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <protection locked="0"/>
     </xf>
@@ -1084,6 +1344,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1377,27 +1646,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="143.1796875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="143.21875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="52.8">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1423,16 +1694,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1446,21 +1717,21 @@
         <v>126</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1">
         <v>45292</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1473,18 +1744,18 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1506,20 +1777,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="25.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1551,24 +1822,24 @@
         <v>12</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -1580,7 +1851,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>58</v>
@@ -1591,16 +1862,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -1612,7 +1883,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>58</v>
@@ -1623,16 +1894,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -1644,30 +1915,30 @@
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -1679,16 +1950,16 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1743,12 +2014,12 @@
       <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="2"/>
+    <col min="3" max="3" width="29.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1764,46 +2035,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1822,12 +2093,12 @@
       <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1846,86 +2117,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -28288,25 +28559,200 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A084EBE-B9E6-49C5-8287-B9D52F90CFF5}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{41D0BE01-7615-4C62-9952-56801C548D20}">
+          <x14:formula1>
+            <xm:f>Admin!$G$2:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1002</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F3CE291F-96BB-4DFB-BADA-03CE67A810C3}">
+          <x14:formula1>
+            <xm:f>Admin!$H$2:$H$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1002</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -28320,13 +28766,17 @@
         <v>12</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
@@ -28345,10 +28795,14 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+        <v>167</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
@@ -28364,13 +28818,17 @@
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -28389,8 +28847,12 @@
       <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
@@ -28409,8 +28871,12 @@
       <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
@@ -28429,8 +28895,10 @@
       <c r="F6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="16" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
@@ -28449,8 +28917,10 @@
       <c r="F7" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="16" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
@@ -28466,8 +28936,10 @@
         <v>40</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="16" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
@@ -28483,8 +28955,10 @@
         <v>42</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="16" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
@@ -28501,8 +28975,10 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5"/>
@@ -28517,8 +28993,10 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8"/>
@@ -28533,8 +29011,10 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5"/>
@@ -28689,7 +29169,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -28737,7 +29217,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -28753,7 +29233,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -28769,7 +29249,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -28842,7 +29322,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>76</v>
@@ -28953,7 +29433,7 @@
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -28962,22 +29442,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="D41" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="D42" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="D43" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="D44" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -28997,7 +29477,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="D48" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="4:4">
@@ -29022,17 +29502,17 @@
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="4:4">

--- a/example-0001_dra_metadata.xlsx
+++ b/example-0001_dra_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\sub2xml\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7965A1-26F8-4D19-8036-801F7F28F8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B082B15A-6F10-4CBE-B97A-EEB017BB78A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="430" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -267,7 +267,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C1818EC9-AF14-4D2B-B775-82B798AE10AA}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{545AC170-8DDA-4300-A52A-5110075064EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter Run accession(s). List more than one accession by delimiting "," (comma). Serial accessions can be specified by connecting start and end accessions with "-" (hyphen).
+Examples;
+"DRR000001"
+"DRR000001,DRR000003"
+"DRR000001-DRR000010"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C1818EC9-AF14-4D2B-B775-82B798AE10AA}">
       <text>
         <r>
           <rPr>
@@ -296,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{05F83AC4-B102-475C-824D-4FAF9E9AE49F}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{05F83AC4-B102-475C-824D-4FAF9E9AE49F}">
       <text>
         <r>
           <rPr>
@@ -316,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{E3C27783-EBCC-49A7-AFD7-99A972A7DC6E}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E3C27783-EBCC-49A7-AFD7-99A972A7DC6E}">
       <text>
         <r>
           <rPr>
@@ -332,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{78F649D0-4A30-4213-B444-7061F8521889}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{78F649D0-4A30-4213-B444-7061F8521889}">
       <text>
         <r>
           <rPr>
@@ -350,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9E424635-C0B9-40CF-8940-268BDF6A3258}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9E424635-C0B9-40CF-8940-268BDF6A3258}">
       <text>
         <r>
           <rPr>
@@ -378,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{3D389C80-4B0A-4C92-B165-98A69DFD6404}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{3D389C80-4B0A-4C92-B165-98A69DFD6404}">
       <text>
         <r>
           <rPr>
@@ -400,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="249">
   <si>
     <t>Library Source</t>
   </si>
@@ -1160,18 +1179,22 @@
     <t>tsv</t>
   </si>
   <si>
-    <t>2023-09-04 Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v1.6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>This excel file is used to generate Submission, Experiment, Run and Analysis XMLs for DDBJ Sequence Read Archive (DRA) submission. 
 Analysis submission is optional.
 Analysis-only submission is NOT acceptable. Submit Analysis in a DRA Submission which has Run(s).
 Please see https://github.com/ddbj/submission-excel2xml for details.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023-11-21 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v1.7</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1646,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -1658,17 +1681,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="52.8">
       <c r="A4" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -28560,11 +28583,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A084EBE-B9E6-49C5-8287-B9D52F90CFF5}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -28573,15 +28594,16 @@
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="81.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="14" t="s">
         <v>223</v>
       </c>
@@ -28597,26 +28619,29 @@
       <c r="E1" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -28628,8 +28653,9 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -28641,8 +28667,9 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -28654,8 +28681,9 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -28667,8 +28695,9 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -28680,8 +28709,9 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -28693,8 +28723,9 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -28706,6 +28737,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -28724,7 +28756,7 @@
           <x14:formula1>
             <xm:f>Admin!$H$2:$H$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1002</xm:sqref>
+          <xm:sqref>H2:H1002</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/example-0001_dra_metadata.xlsx
+++ b/example-0001_dra_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\sub2xml\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B082B15A-6F10-4CBE-B97A-EEB017BB78A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AAA87-4002-4F3E-9CDC-3B53CDD54138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{545AC170-8DDA-4300-A52A-5110075064EE}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A0446472-41D5-4155-BD71-108038356866}">
       <text>
         <r>
           <rPr>
@@ -281,8 +281,9 @@
           <t>Enter Run accession(s). List more than one accession by delimiting "," (comma). Serial accessions can be specified by connecting start and end accessions with "-" (hyphen).
 Examples;
 "DRR000001"
+"SRR000001"
 "DRR000001,DRR000003"
-"DRR000001-DRR000010"</t>
+"SRR000010-SRR000020"</t>
         </r>
       </text>
     </comment>
